--- a/www.eia.gov/electricity/monthly/xls/table_a_4_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_a_4_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table A.4.B. Relative Standard Error for Net Generation by Fuel Type:</t>
   </si>
   <si>
-    <t>Commercial Sector by Census Division and State, Year-to-Date through October 2016</t>
+    <t>Commercial Sector by Census Division and State, Year-to-Date through November 2016</t>
   </si>
   <si>
     <t>Census Region and State</t>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="6">
-        <v>764</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="8">
-        <v>152</v>
+        <v>587</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="8">
-        <v>604</v>
+        <v>549</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="8">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
@@ -1270,13 +1270,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="8">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
       </c>
       <c r="E7" s="8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <v>764</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="8">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
       </c>
       <c r="E8" s="8">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
@@ -1322,13 +1322,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="8">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
       </c>
       <c r="E9" s="8">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="8">
-        <v>1348</v>
+        <v>1201</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
       </c>
       <c r="E10" s="8">
-        <v>2967</v>
+        <v>2815</v>
       </c>
       <c r="F10" s="8">
         <v>0</v>
@@ -1374,13 +1374,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="6">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="D11" s="6">
         <v>0</v>
       </c>
       <c r="E11" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="6">
-        <v>807</v>
+        <v>775</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1400,13 +1400,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="8">
-        <v>240</v>
+        <v>486</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
       <c r="E12" s="8">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="8">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
       </c>
       <c r="E13" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F13" s="8">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="8">
-        <v>807</v>
+        <v>775</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1452,13 +1452,13 @@
         <v>0</v>
       </c>
       <c r="C14" s="8">
-        <v>230</v>
+        <v>1207</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
       </c>
       <c r="E14" s="8">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
@@ -1475,16 +1475,16 @@
         <v>21</v>
       </c>
       <c r="B15" s="6">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="C15" s="6">
-        <v>134</v>
+        <v>299</v>
       </c>
       <c r="D15" s="6">
         <v>0</v>
       </c>
       <c r="E15" s="6">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="6">
-        <v>666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1501,16 +1501,16 @@
         <v>22</v>
       </c>
       <c r="B16" s="8">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="C16" s="8">
-        <v>339</v>
+        <v>433</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
       </c>
       <c r="E16" s="8">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F16" s="8">
         <v>0</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="8">
-        <v>666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1527,16 +1527,16 @@
         <v>23</v>
       </c>
       <c r="B17" s="8">
-        <v>209</v>
+        <v>35</v>
       </c>
       <c r="C17" s="8">
-        <v>1469</v>
+        <v>1039</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
       </c>
       <c r="E17" s="8">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F17" s="8">
         <v>0</v>
@@ -1556,13 +1556,13 @@
         <v>0</v>
       </c>
       <c r="C18" s="8">
+        <v>241</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
         <v>28</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
-        <v>19</v>
       </c>
       <c r="F18" s="8">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="C19" s="8">
-        <v>417</v>
+        <v>1939</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
       </c>
       <c r="E19" s="8">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F19" s="8">
         <v>0</v>
@@ -1608,13 +1608,13 @@
         <v>0</v>
       </c>
       <c r="C20" s="8">
-        <v>10468</v>
+        <v>7275</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
       </c>
       <c r="E20" s="8">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="F20" s="8">
         <v>0</v>
@@ -1631,16 +1631,16 @@
         <v>27</v>
       </c>
       <c r="B21" s="6">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C21" s="6">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D21" s="6">
         <v>0</v>
       </c>
       <c r="E21" s="6">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F21" s="6">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>28</v>
       </c>
       <c r="B22" s="8">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C22" s="8">
-        <v>381</v>
+        <v>607</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
       </c>
       <c r="E22" s="8">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F22" s="8">
         <v>0</v>
@@ -1683,16 +1683,16 @@
         <v>29</v>
       </c>
       <c r="B23" s="8">
-        <v>613</v>
+        <v>423</v>
       </c>
       <c r="C23" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
       </c>
       <c r="E23" s="8">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="F23" s="8">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="8">
-        <v>479</v>
+        <v>510</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="8">
-        <v>708</v>
+        <v>1015</v>
       </c>
       <c r="F25" s="8">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="8">
-        <v>846</v>
+        <v>900</v>
       </c>
       <c r="D26" s="8">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="8">
-        <v>712</v>
+        <v>758</v>
       </c>
       <c r="D27" s="8">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>34</v>
       </c>
       <c r="B28" s="6">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C28" s="6">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="D28" s="6">
         <v>0</v>
       </c>
       <c r="E28" s="6">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F28" s="6">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="6">
-        <v>406</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1842,13 +1842,13 @@
         <v>0</v>
       </c>
       <c r="C29" s="8">
-        <v>1089</v>
+        <v>3091</v>
       </c>
       <c r="D29" s="8">
         <v>0</v>
       </c>
       <c r="E29" s="8">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F29" s="8">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="8">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="F30" s="8">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D31" s="8">
         <v>0</v>
@@ -1920,13 +1920,13 @@
         <v>0</v>
       </c>
       <c r="C32" s="8">
-        <v>476</v>
+        <v>1091</v>
       </c>
       <c r="D32" s="8">
         <v>0</v>
       </c>
       <c r="E32" s="8">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F32" s="8">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="8">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D33" s="8">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="8">
-        <v>423</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1972,13 +1972,13 @@
         <v>0</v>
       </c>
       <c r="C34" s="8">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="D34" s="8">
         <v>0</v>
       </c>
       <c r="E34" s="8">
-        <v>174</v>
+        <v>313</v>
       </c>
       <c r="F34" s="8">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="8">
-        <v>1114</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1995,16 +1995,16 @@
         <v>41</v>
       </c>
       <c r="B35" s="8">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="C35" s="8">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="D35" s="8">
         <v>0</v>
       </c>
       <c r="E35" s="8">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="F35" s="8">
         <v>0</v>
@@ -2024,13 +2024,13 @@
         <v>0</v>
       </c>
       <c r="C36" s="6">
-        <v>761</v>
+        <v>810</v>
       </c>
       <c r="D36" s="6">
         <v>0</v>
       </c>
       <c r="E36" s="6">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F36" s="6">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="8">
-        <v>293</v>
+        <v>348</v>
       </c>
       <c r="F37" s="8">
         <v>0</v>
@@ -2076,13 +2076,13 @@
         <v>0</v>
       </c>
       <c r="C38" s="8">
-        <v>761</v>
+        <v>810</v>
       </c>
       <c r="D38" s="8">
         <v>0</v>
       </c>
       <c r="E38" s="8">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F38" s="8">
         <v>0</v>
@@ -2102,13 +2102,13 @@
         <v>0</v>
       </c>
       <c r="C39" s="6">
-        <v>1209</v>
+        <v>1072</v>
       </c>
       <c r="D39" s="6">
         <v>0</v>
       </c>
       <c r="E39" s="6">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F39" s="6">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="8">
-        <v>704</v>
+        <v>766</v>
       </c>
       <c r="F40" s="8">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F41" s="8">
         <v>0</v>
@@ -2180,13 +2180,13 @@
         <v>0</v>
       </c>
       <c r="C42" s="8">
-        <v>1420</v>
+        <v>1512</v>
       </c>
       <c r="D42" s="8">
         <v>0</v>
       </c>
       <c r="E42" s="8">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="F42" s="8">
         <v>0</v>
@@ -2206,13 +2206,13 @@
         <v>0</v>
       </c>
       <c r="C43" s="8">
-        <v>1224</v>
+        <v>1086</v>
       </c>
       <c r="D43" s="8">
         <v>0</v>
       </c>
       <c r="E43" s="8">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F43" s="8">
         <v>0</v>
@@ -2232,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="C44" s="6">
-        <v>757</v>
+        <v>806</v>
       </c>
       <c r="D44" s="6">
         <v>0</v>
       </c>
       <c r="E44" s="6">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F44" s="6">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="6">
-        <v>382</v>
+        <v>434</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2258,13 +2258,13 @@
         <v>0</v>
       </c>
       <c r="C45" s="8">
-        <v>757</v>
+        <v>806</v>
       </c>
       <c r="D45" s="8">
         <v>0</v>
       </c>
       <c r="E45" s="8">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F45" s="8">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="8">
-        <v>382</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="8">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F48" s="8">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="8">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F49" s="8">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="8">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F50" s="8">
         <v>0</v>
@@ -2414,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="C51" s="6">
-        <v>270</v>
+        <v>1409</v>
       </c>
       <c r="D51" s="6">
         <v>0</v>
       </c>
       <c r="E51" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F51" s="6">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="6">
-        <v>273</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2440,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="C52" s="8">
-        <v>356</v>
+        <v>1846</v>
       </c>
       <c r="D52" s="8">
         <v>0</v>
       </c>
       <c r="E52" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F52" s="8">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="8">
-        <v>273</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2466,13 +2466,13 @@
         <v>0</v>
       </c>
       <c r="C53" s="8">
-        <v>3579</v>
+        <v>13658</v>
       </c>
       <c r="D53" s="8">
         <v>0</v>
       </c>
       <c r="E53" s="8">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="F53" s="8">
         <v>0</v>
@@ -2492,13 +2492,13 @@
         <v>0</v>
       </c>
       <c r="C54" s="8">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D54" s="8">
         <v>0</v>
       </c>
       <c r="E54" s="8">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="F54" s="8">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>61</v>
       </c>
       <c r="B55" s="6">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C55" s="6">
         <v>70</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="6">
-        <v>753</v>
+        <v>1181</v>
       </c>
       <c r="F55" s="6">
         <v>0</v>
@@ -2541,16 +2541,16 @@
         <v>62</v>
       </c>
       <c r="B56" s="8">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C56" s="8">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D56" s="8">
         <v>0</v>
       </c>
       <c r="E56" s="8">
-        <v>753</v>
+        <v>1181</v>
       </c>
       <c r="F56" s="8">
         <v>0</v>
@@ -2593,16 +2593,16 @@
         <v>64</v>
       </c>
       <c r="B58" s="6">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C58" s="6">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D58" s="6">
         <v>0</v>
       </c>
       <c r="E58" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F58" s="6">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="6">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
